--- a/biology/Zoologie/Demandasaurus/Demandasaurus.xlsx
+++ b/biology/Zoologie/Demandasaurus/Demandasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Demandasaurus darwini
-Demandasaurus est un genre éteint de dinosaures sauropodes  diplodocoïdes, rattaché à la famille des Rebbachisauridae[1],[2].
-Il a vécu au Crétacé inférieur, du Barrémien supérieur à l'Aptien inférieur, soit il y a environ 125 Ma (millions d'années)[1] dans une région qui est maintenant l'Espagne, dans la communauté autonome de Castille-et-León, où il a été découvert dans la formation géologique de Castrillo de la Reina.
-Le genre ne comporte que l'espèce Demandasaurus darwini, décrite en 2011 par Fidel Torcida Fernández-Baldor (d), José Ignacio Canudo (d), Pedro Huerta (d), Diego Montero (d), Xabier Pereda-Suberbiola (d) et Leonardo Salgado[1].
+Demandasaurus est un genre éteint de dinosaures sauropodes  diplodocoïdes, rattaché à la famille des Rebbachisauridae,.
+Il a vécu au Crétacé inférieur, du Barrémien supérieur à l'Aptien inférieur, soit il y a environ 125 Ma (millions d'années) dans une région qui est maintenant l'Espagne, dans la communauté autonome de Castille-et-León, où il a été découvert dans la formation géologique de Castrillo de la Reina.
+Le genre ne comporte que l'espèce Demandasaurus darwini, décrite en 2011 par Fidel Torcida Fernández-Baldor (d), José Ignacio Canudo (d), Pedro Huerta (d), Diego Montero (d), Xabier Pereda-Suberbiola (d) et Leonardo Salgado.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Demandasaurus darwini est connu par des restes fossiles partiels (crânien et post-crânien), découverts dans la province de Burgos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Demandasaurus darwini est connu par des restes fossiles partiels (crânien et post-crânien), découverts dans la province de Burgos.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Demandasaurus fait référence au massif de la Demanda une chaîne de montagnes de la province de Burgos, où le fossile a été découvert, associé au grec ancien « saûros » qui signifie « lézard » pour donner « lézard du massif de la Demanda ».
 </t>
@@ -576,10 +592,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet herbivore est un néosauropode de taille moyenne, avec une longueur totale estimée à 15 mètres[3].
-Les autapomorphies caractérisant ce genre concernent la morphologie des dents et des vertèbres[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet herbivore est un néosauropode de taille moyenne, avec une longueur totale estimée à 15 mètres.
+Les autapomorphies caractérisant ce genre concernent la morphologie des dents et des vertèbres.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur analyse phylogénétique Carballido et son équipe placent, en 2012, Demandasaurus parmi les rebbachisauridés, dans la sous-famille des Nigersaurinae, renommée Rebbachisaurinae en 2015 par F. Fanti et ses collègues[4]. Demandasaurus est proche des  genres Nigersaurus et Tataouinea.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur analyse phylogénétique Carballido et son équipe placent, en 2012, Demandasaurus parmi les rebbachisauridés, dans la sous-famille des Nigersaurinae, renommée Rebbachisaurinae en 2015 par F. Fanti et ses collègues. Demandasaurus est proche des  genres Nigersaurus et Tataouinea.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Fidel Torcida Fernández-Baldor, José Ignacio Canudo, Pedro Huerta, Diego Montero, Xabier Pereda Suberbiola et Leonardo Salgado, « Demandasaurus darwini, a New Rebbachisaurid Sauropod from the Early Cretaceous of the Iberian Peninsula », Acta Palaeontologica Polonica, PAN et Institute of Paleobiology (d), vol. 56, no 3,‎ septembre 2011, p. 535-552 (ISSN 0567-7920 et 1732-2421, OCLC 02051833, DOI 10.4202/APP.2010.0003)</t>
         </is>
